--- a/Hardware/Satelite/PCB_D/BOM_D.xlsx
+++ b/Hardware/Satelite/PCB_D/BOM_D.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
   <si>
     <t>Component</t>
   </si>
@@ -204,9 +204,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
@@ -216,15 +213,6 @@
     <t>RC0603JR-0710KL</t>
   </si>
   <si>
-    <t>R1 R3</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>RC0603JR-071KL</t>
-  </si>
-  <si>
     <t>R4 R5 R6</t>
   </si>
   <si>
@@ -301,6 +289,33 @@
   </si>
   <si>
     <t>TPD2E2U06DRLR</t>
+  </si>
+  <si>
+    <t>1000V 1A General Purpose Rectifier Diode, DO-41</t>
+  </si>
+  <si>
+    <t>1N4007</t>
+  </si>
+  <si>
+    <t>D_SMA</t>
+  </si>
+  <si>
+    <t>S1K-13-F</t>
+  </si>
+  <si>
+    <t>D5 D6</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>RC0603JR-07100KL</t>
+  </si>
+  <si>
+    <t>R2 R3</t>
   </si>
 </sst>
 </file>
@@ -849,8 +864,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:H21" totalsRowShown="0">
-  <autoFilter ref="A1:H21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:H22" totalsRowShown="0">
+  <autoFilter ref="A1:H22"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Component"/>
     <tableColumn id="2" name="Description"/>
@@ -1128,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1253,25 +1268,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -1279,25 +1294,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -1311,68 +1326,68 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>61300311121</v>
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1380,25 +1395,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>61300311121</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1406,48 +1421,51 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -1455,48 +1473,45 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
         <v>54</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -1510,19 +1525,19 @@
         <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -1536,19 +1551,19 @@
         <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16">
-        <v>220</v>
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
       </c>
       <c r="F16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
         <v>63</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -1556,25 +1571,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
+        <v>64</v>
+      </c>
+      <c r="E17">
+        <v>220</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -1582,25 +1597,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -1608,25 +1623,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -1634,25 +1649,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -1660,34 +1675,61 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B34" s="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>